--- a/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
@@ -1066,7 +1066,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>742785.009</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>742785.009</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>742785.009</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>742785.009</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>98.7</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>98.7</v>

--- a/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
@@ -1066,7 +1066,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>742785.009</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>742785.009</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>742785.009</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>742785.009</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>742785.009</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>742785.009</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>742785.009</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>742785.009</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>463383.745</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>463383.745</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>98.7</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>98.7</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>97.09999999999999</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>97.09999999999999</v>

--- a/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
@@ -1263,7 +1263,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>98.7</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>98.7</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>97.09999999999999</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>97.09999999999999</v>

--- a/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
@@ -1066,7 +1066,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>742785.009</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>742785.009</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>742785.009</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>742785.009</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>742785.009</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>742785.009</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>742785.009</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>742785.009</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>463383.745</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>463383.745</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>98.7</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>98.7</v>

--- a/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
@@ -1066,7 +1066,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>742785.009</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>742785.009</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>742785.009</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>742785.009</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>742785.009</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>742785.009</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>742785.009</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>742785.009</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>497958.459</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>497958.459</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>463383.745</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>463383.745</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>209611.199</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>209611.199</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>98.7</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>98.7</v>

--- a/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>742785.009</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>742785.009</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>742785.009</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>742785.009</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>497958.459</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>497958.459</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>209611.199</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>209611.199</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>97.09999999999999</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>97.09999999999999</v>

--- a/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
+++ b/dados/analises/2024/excel/03-ranking-categoria-mencao-flex.xlsx
@@ -1066,7 +1066,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>742785.009</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>742785.009</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>742785.009</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>742785.009</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>742785.009</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>742785.009</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>742785.009</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>742785.009</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>497958.459</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>497958.459</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>463383.745</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>463383.745</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>209611.199</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>209611.199</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>98.7</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>98.7</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>97.09999999999999</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>97.09999999999999</v>
